--- a/product.xlsx
+++ b/product.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\shopNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BFB5E8-AA84-4A8C-A493-31E268B91324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1CE378-7136-49CC-B8F0-539DBC6F8D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1241,6 +1241,9 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -1272,6 +1275,9 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>64</v>
       </c>
@@ -1303,6 +1309,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>67</v>
       </c>
@@ -1334,6 +1343,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
